--- a/CBIG_ME_TheoreticalModel_Params.xlsx
+++ b/CBIG_ME_TheoreticalModel_Params.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Attention Problems</t>
+          <t>Social Problems</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1450439873715192</v>
+        <v>0.136526202256304</v>
       </c>
       <c r="F2" t="n">
-        <v>9.46301210644788e-05</v>
+        <v>7.207716294251969e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>10000.00000831079</v>
+        <v>14500.00000618957</v>
       </c>
     </row>
     <row r="3">
@@ -509,12 +509,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rule-breaking Behaviour</t>
+          <t>Attention Problems</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1646852406706904</v>
+        <v>0.1496405178882037</v>
       </c>
       <c r="F3" t="n">
-        <v>300.0000776844674</v>
+        <v>9.703022513720631e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>8500.000007220469</v>
+        <v>9500.000008626181</v>
       </c>
     </row>
     <row r="4">
@@ -540,27 +540,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vocabulary</t>
+          <t>Rule-breaking Behaviour</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Mental Health</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4556519867045241</v>
+        <v>0.1751469718280761</v>
       </c>
       <c r="F4" t="n">
-        <v>50.00009396532062</v>
+        <v>350.0000655528174</v>
       </c>
       <c r="G4" t="n">
-        <v>2000.000011444889</v>
+        <v>10500.00000595437</v>
       </c>
     </row>
     <row r="5">
@@ -571,12 +571,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Vocabulary</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2242029226897664</v>
+        <v>0.4536348050066989</v>
       </c>
       <c r="F5" t="n">
-        <v>1450.000037768038</v>
+        <v>9.537806562715735e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>9000.000003805158</v>
+        <v>2500.000009676633</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4217433107950705</v>
+        <v>0.4203609348436889</v>
       </c>
       <c r="F6" t="n">
-        <v>700.0000358508074</v>
+        <v>550.0000369317129</v>
       </c>
       <c r="G6" t="n">
-        <v>7000.000003593388</v>
+        <v>8500.000003500569</v>
       </c>
     </row>
     <row r="7">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2353476099290962</v>
+        <v>0.2209254807733155</v>
       </c>
       <c r="F7" t="n">
-        <v>150.0001389720495</v>
+        <v>0.0001816485700864841</v>
       </c>
       <c r="G7" t="n">
-        <v>3000.000014504986</v>
+        <v>3500.000017846206</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2432639627814636</v>
+        <v>0.250085404490167</v>
       </c>
       <c r="F8" t="n">
-        <v>150.0000862330758</v>
+        <v>100.0000766084356</v>
       </c>
       <c r="G8" t="n">
-        <v>7000.000008028869</v>
+        <v>9000.000006854347</v>
       </c>
     </row>
     <row r="9">
@@ -695,7 +695,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4456788418530822</v>
+        <v>0.418131656151003</v>
       </c>
       <c r="F9" t="n">
-        <v>200.0000589452959</v>
+        <v>100.0000760998213</v>
       </c>
       <c r="G9" t="n">
-        <v>4000.00000597736</v>
+        <v>4000.000007387939</v>
       </c>
     </row>
     <row r="10">
@@ -726,7 +726,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3899163642379259</v>
+        <v>0.3781104231353146</v>
       </c>
       <c r="F10" t="n">
-        <v>400.0000565100859</v>
+        <v>250.0000648681814</v>
       </c>
       <c r="G10" t="n">
-        <v>4500.000005797501</v>
+        <v>5000.000006433835</v>
       </c>
     </row>
     <row r="11">
@@ -757,7 +757,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5160898554373644</v>
+        <v>0.5006117941830455</v>
       </c>
       <c r="F11" t="n">
-        <v>50.00005823595072</v>
+        <v>7.31273258309624e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>2500.00000588363</v>
+        <v>2500.000007353211</v>
       </c>
     </row>
     <row r="12">
@@ -788,7 +788,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.496147222836296</v>
+        <v>0.4857389919322077</v>
       </c>
       <c r="F12" t="n">
-        <v>150.0000578238345</v>
+        <v>50.00007008618812</v>
       </c>
       <c r="G12" t="n">
-        <v>2500.000006712638</v>
+        <v>3000.0000069876</v>
       </c>
     </row>
     <row r="13">
@@ -819,7 +819,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1515119456009806</v>
+        <v>0.1672163726163813</v>
       </c>
       <c r="F13" t="n">
-        <v>150.0000793091337</v>
+        <v>7.133602558294244e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>10500.00000701971</v>
+        <v>14000.0000059914</v>
       </c>
     </row>
     <row r="14">
@@ -850,7 +850,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2064563729107896</v>
+        <v>0.2071502900351812</v>
       </c>
       <c r="F14" t="n">
-        <v>100.0002081125174</v>
+        <v>100.000182271236</v>
       </c>
       <c r="G14" t="n">
-        <v>2000.000022765533</v>
+        <v>2500.000019411866</v>
       </c>
     </row>
     <row r="15">
@@ -881,7 +881,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2162099972126673</v>
+        <v>0.2112312435184295</v>
       </c>
       <c r="F15" t="n">
-        <v>100.0002328698983</v>
+        <v>100.0002387757502</v>
       </c>
       <c r="G15" t="n">
-        <v>1500.000026311628</v>
+        <v>1500.000027161682</v>
       </c>
     </row>
     <row r="16">
@@ -912,7 +912,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3697943647739857</v>
+        <v>0.3603879154807633</v>
       </c>
       <c r="F16" t="n">
-        <v>50.00011516425773</v>
+        <v>0.0001215638965825258</v>
       </c>
       <c r="G16" t="n">
-        <v>3000.000011595702</v>
+        <v>3500.000011887867</v>
       </c>
     </row>
     <row r="17">
@@ -943,7 +943,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3061123529068021</v>
+        <v>0.3080070477286969</v>
       </c>
       <c r="F17" t="n">
-        <v>800.0000409043091</v>
+        <v>850.0000364997848</v>
       </c>
       <c r="G17" t="n">
-        <v>10000.00000392388</v>
+        <v>12500.00000340476</v>
       </c>
     </row>
     <row r="18">
@@ -974,12 +974,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Visuospatial Reaction Time</t>
+          <t>Cognition Factor Score</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -988,29 +988,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1213511002293346</v>
+        <v>0.5049462100824971</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0001032204039466163</v>
+        <v>50.00006703335768</v>
       </c>
       <c r="G18" t="n">
-        <v>9500.000009041456</v>
+        <v>2500.000007597195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ABCD (rest)</t>
+          <t>HCP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cognition Factor Score</t>
+          <t>Cognitive Flexibility</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5200243033844598</v>
+        <v>0.2640753809718963</v>
       </c>
       <c r="F19" t="n">
-        <v>100.0000557800942</v>
+        <v>550.000117993734</v>
       </c>
       <c r="G19" t="n">
-        <v>2500.000005593066</v>
+        <v>2500.000005732231</v>
       </c>
     </row>
     <row r="20">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cognitive Flexibility</t>
+          <t>Inhibition</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2553831172779083</v>
+        <v>0.1908815520951652</v>
       </c>
       <c r="F20" t="n">
-        <v>450.0001334959417</v>
+        <v>1000.000064225968</v>
       </c>
       <c r="G20" t="n">
-        <v>3000.000006136018</v>
+        <v>14500.00000250774</v>
       </c>
     </row>
     <row r="21">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Inhibition</t>
+          <t>Fluid Intelligence</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2480418306592001</v>
+        <v>0.3974594545818206</v>
       </c>
       <c r="F21" t="n">
-        <v>1100.000056010497</v>
+        <v>600.0000651364488</v>
       </c>
       <c r="G21" t="n">
-        <v>14500.00000228012</v>
+        <v>9000.000002503639</v>
       </c>
     </row>
     <row r="22">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fluid Intelligence</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.4507635482208625</v>
+        <v>0.5010176512628219</v>
       </c>
       <c r="F22" t="n">
-        <v>800.0000493209793</v>
+        <v>150.0000772201141</v>
       </c>
       <c r="G22" t="n">
-        <v>7000.000002048386</v>
+        <v>8000.000002683674</v>
       </c>
     </row>
     <row r="23">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Vocab.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.5028558536278315</v>
+        <v>0.5488080980989313</v>
       </c>
       <c r="F23" t="n">
-        <v>200.0000790890934</v>
+        <v>250.0000533609765</v>
       </c>
       <c r="G23" t="n">
-        <v>5500.00000303325</v>
+        <v>7000.0000019734</v>
       </c>
     </row>
     <row r="24">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Vocab.</t>
+          <t>Processing Speed</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.5190061830844126</v>
+        <v>0.235656131712461</v>
       </c>
       <c r="F24" t="n">
-        <v>200.0000734337673</v>
+        <v>300.0001526575631</v>
       </c>
       <c r="G24" t="n">
-        <v>5500.000002773624</v>
+        <v>5500.000005997391</v>
       </c>
     </row>
     <row r="25">
@@ -1191,27 +1191,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Processing Speed</t>
+          <t>Delay Discounting</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Personality</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2307116900071765</v>
+        <v>0.3217078273662449</v>
       </c>
       <c r="F25" t="n">
-        <v>200.0001796281353</v>
+        <v>250.0001606705524</v>
       </c>
       <c r="G25" t="n">
-        <v>6000.000006721222</v>
+        <v>3000.000007003372</v>
       </c>
     </row>
     <row r="26">
@@ -1222,27 +1222,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Delay Discounting</t>
+          <t>Spatial Orientation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Personality</t>
+          <t>Cognition</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.3399717488757414</v>
+        <v>0.5371079871626386</v>
       </c>
       <c r="F26" t="n">
-        <v>250.0001531169663</v>
+        <v>1300.000022215811</v>
       </c>
       <c r="G26" t="n">
-        <v>3000.000006665624</v>
+        <v>14000.00000086084</v>
       </c>
     </row>
     <row r="27">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Spatial Orientation</t>
+          <t>Sustained Attention (Spec.)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.5793207831888986</v>
+        <v>0.121091895055836</v>
       </c>
       <c r="F27" t="n">
-        <v>1350.000017180218</v>
+        <v>0.0002005529658325186</v>
       </c>
       <c r="G27" t="n">
-        <v>11500.00000068226</v>
+        <v>14500.00000633304</v>
       </c>
     </row>
     <row r="28">
@@ -1284,27 +1284,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sustained Attention (Spec.)</t>
+          <t>Sleep Quality (PSQI)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1224009845456274</v>
+        <v>0.2644602161971265</v>
       </c>
       <c r="F28" t="n">
-        <v>0.000200780399467487</v>
+        <v>1450.000048045072</v>
       </c>
       <c r="G28" t="n">
-        <v>14500.00000630661</v>
+        <v>11500.00000195782</v>
       </c>
     </row>
     <row r="29">
@@ -1315,27 +1315,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>List Sorting</t>
+          <t>Emotional Face Matching</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Emotion</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.3604369384573688</v>
+        <v>0.1532831293927887</v>
       </c>
       <c r="F29" t="n">
-        <v>1150.000044204399</v>
+        <v>0.0001905150239172113</v>
       </c>
       <c r="G29" t="n">
-        <v>14500.00000178047</v>
+        <v>14500.00000602582</v>
       </c>
     </row>
     <row r="30">
@@ -1346,27 +1346,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sleep Quality (PSQI)</t>
+          <t>Story Comprehension</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Cognition</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.2793180240730221</v>
+        <v>0.3329249312108405</v>
       </c>
       <c r="F30" t="n">
-        <v>1450.000048199808</v>
+        <v>250.000115895315</v>
       </c>
       <c r="G30" t="n">
-        <v>10000.00000201569</v>
+        <v>8500.00000415363</v>
       </c>
     </row>
     <row r="31">
@@ -1377,27 +1377,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Walking Speed</t>
+          <t>Relational Processing</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Cognition</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1466665852150249</v>
+        <v>0.4560753597945858</v>
       </c>
       <c r="F31" t="n">
-        <v>250.0001300755908</v>
+        <v>350.0000688537295</v>
       </c>
       <c r="G31" t="n">
-        <v>14500.00000432359</v>
+        <v>9000.000002525861</v>
       </c>
     </row>
     <row r="32">
@@ -1408,27 +1408,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Grip Strength</t>
+          <t>N-back</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Cognition</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1197847725706772</v>
+        <v>0.3903896973658673</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0002003313908680246</v>
+        <v>450.0000961058518</v>
       </c>
       <c r="G32" t="n">
-        <v>14500.00000643988</v>
+        <v>3000.000004442674</v>
       </c>
     </row>
     <row r="33">
@@ -1439,27 +1439,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Emotional Face Matching</t>
+          <t>Openness (NEO)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Emotion</t>
+          <t>Personality</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1621045320053713</v>
+        <v>0.3095486727247869</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0001888565868928877</v>
+        <v>250.0000984200068</v>
       </c>
       <c r="G33" t="n">
-        <v>14500.00000591464</v>
+        <v>14500.00000335364</v>
       </c>
     </row>
     <row r="34">
@@ -1470,27 +1470,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Arithmetic</t>
+          <t>Conscientiousness (NEO)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Personality</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2317038594183526</v>
+        <v>0.2671440508465993</v>
       </c>
       <c r="F34" t="n">
-        <v>650.0000774243758</v>
+        <v>1100.000054430308</v>
       </c>
       <c r="G34" t="n">
-        <v>14500.00000287726</v>
+        <v>14500.00000214599</v>
       </c>
     </row>
     <row r="35">
@@ -1501,27 +1501,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Story Comprehension</t>
+          <t>Extraversion (NEO)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Personality</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.3264966196268742</v>
+        <v>0.2699852608741076</v>
       </c>
       <c r="F35" t="n">
-        <v>200.0001299730278</v>
+        <v>1450.000054300069</v>
       </c>
       <c r="G35" t="n">
-        <v>8000.000004632058</v>
+        <v>5000.000002539031</v>
       </c>
     </row>
     <row r="36">
@@ -1532,27 +1532,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Relational Processing</t>
+          <t>Life Satisfaction</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Well Being</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.4946553511187113</v>
+        <v>0.2966588177847446</v>
       </c>
       <c r="F36" t="n">
-        <v>450.0000525920926</v>
+        <v>1450.000044038856</v>
       </c>
       <c r="G36" t="n">
-        <v>9000.000001998656</v>
+        <v>14500.00000171055</v>
       </c>
     </row>
     <row r="37">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N-back</t>
+          <t>Cognition Factor Score</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1577,184 +1577,184 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.3693267402270507</v>
+        <v>0.6199973969016704</v>
       </c>
       <c r="F37" t="n">
-        <v>400.0001159929543</v>
+        <v>200.0000344352978</v>
       </c>
       <c r="G37" t="n">
-        <v>2000.000005716581</v>
+        <v>3500.000001527666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Openness (NEO)</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Personality</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2835704874018593</v>
+        <v>0.6233932012288771</v>
       </c>
       <c r="F38" t="n">
-        <v>150.0001176361157</v>
+        <v>450.0000142639585</v>
       </c>
       <c r="G38" t="n">
-        <v>14500.00000392249</v>
+        <v>6000.000002290575</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Conscientiousness (NEO)</t>
+          <t>Education (Years)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Personality</t>
+          <t>Cognition</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2659350042104713</v>
+        <v>0.3408007039048046</v>
       </c>
       <c r="F39" t="n">
-        <v>850.0000633999673</v>
+        <v>200.0001935964546</v>
       </c>
       <c r="G39" t="n">
-        <v>14500.00000242534</v>
+        <v>500.0000375051012</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Extraversion (NEO)</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Personality</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2645891931227496</v>
+        <v>0.4675025387356047</v>
       </c>
       <c r="F40" t="n">
-        <v>1450.000055068973</v>
+        <v>150.0000256615721</v>
       </c>
       <c r="G40" t="n">
-        <v>4500.000002645191</v>
+        <v>14500.00000390365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sadness</t>
+          <t>Grip Strength (Left)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Emotion</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.08434001261753422</v>
+        <v>0.6875100935143619</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0002110070894951711</v>
+        <v>400.000004068266</v>
       </c>
       <c r="G41" t="n">
-        <v>14500.00000669594</v>
+        <v>2000.000000649141</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Life Satisfaction</t>
+          <t>Grip Strength (Right)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Well Being</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.3035572856584827</v>
+        <v>0.7221826908798089</v>
       </c>
       <c r="F42" t="n">
-        <v>1450.000045627688</v>
+        <v>449.9999939156151</v>
       </c>
       <c r="G42" t="n">
-        <v>11000.00000185563</v>
+        <v>1999.999998938529</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1000 parcels</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cognition Factor Score</t>
+          <t>Visual Pair Assoc</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1763,29 +1763,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.6166223096817678</v>
+        <v>0.1574699350702893</v>
       </c>
       <c r="F43" t="n">
-        <v>200.0000366946876</v>
+        <v>4.887584144826731e-05</v>
       </c>
       <c r="G43" t="n">
-        <v>3000.000001489491</v>
+        <v>14500.00000739835</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cognitive Flexibility</t>
+          <t>RAVLT</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1794,29 +1794,29 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1364406199300574</v>
+        <v>0.3136283794100894</v>
       </c>
       <c r="F44" t="n">
-        <v>0.000280970335417328</v>
+        <v>100.0000813436068</v>
       </c>
       <c r="G44" t="n">
-        <v>9000.000009176227</v>
+        <v>5500.000012632111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Delayed Visual Pair Assoc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1825,29 +1825,29 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.4191768600516426</v>
+        <v>0.3658055561562307</v>
       </c>
       <c r="F45" t="n">
-        <v>50.00009609455613</v>
+        <v>1450.000022781953</v>
       </c>
       <c r="G45" t="n">
-        <v>14500.00000323816</v>
+        <v>13500.00000364075</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Vocab.</t>
+          <t>Delayed Logical Memory</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1856,60 +1856,60 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.4916502048245117</v>
+        <v>0.2034115741633472</v>
       </c>
       <c r="F46" t="n">
-        <v>400.0000484393809</v>
+        <v>4.537122775466988e-05</v>
       </c>
       <c r="G46" t="n">
-        <v>14500.00000183463</v>
+        <v>14500.00000706531</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Delay Discounting</t>
+          <t>Delayed RAVLT</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Personality</t>
+          <t>Cognition</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.3316332242192755</v>
+        <v>0.3352802953031747</v>
       </c>
       <c r="F47" t="n">
-        <v>500.0001083493387</v>
+        <v>0.0001001322922986864</v>
       </c>
       <c r="G47" t="n">
-        <v>2500.000005238464</v>
+        <v>4500.000015427662</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Spatial Orientation</t>
+          <t>Delay Recognition</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1918,29 +1918,29 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.3306636652197</v>
+        <v>0.3047795299334569</v>
       </c>
       <c r="F48" t="n">
-        <v>350.0000841179469</v>
+        <v>150.0001149386996</v>
       </c>
       <c r="G48" t="n">
-        <v>14500.00000315631</v>
+        <v>3000.000018852105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sustained Attention (Spec.)</t>
+          <t>Trail Making Test (A)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1949,29 +1949,29 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.08751684194660547</v>
+        <v>0.3209426710848011</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0002084390143220467</v>
+        <v>1450.000034420725</v>
       </c>
       <c r="G49" t="n">
-        <v>14500.00000666162</v>
+        <v>7000.000005666856</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>List Sorting</t>
+          <t>Trail Making Test (B)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1980,60 +1980,60 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1522594332850367</v>
+        <v>0.5750105143413808</v>
       </c>
       <c r="F50" t="n">
-        <v>50.0001745311964</v>
+        <v>900.0000155089842</v>
       </c>
       <c r="G50" t="n">
-        <v>14500.00000561841</v>
+        <v>8000.000002503416</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sleep Quality (PSQI)</t>
+          <t>Letter Digit Substitution</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Cognition</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1682295122622627</v>
+        <v>0.5447798417452155</v>
       </c>
       <c r="F51" t="n">
-        <v>600.0001148341173</v>
+        <v>550.0000280003372</v>
       </c>
       <c r="G51" t="n">
-        <v>5500.000004837739</v>
+        <v>5000.000004624959</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Walking Endurance</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2042,229 +2042,5995 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.2484681721665249</v>
+        <v>0.8135427372778327</v>
       </c>
       <c r="F52" t="n">
-        <v>800.0000909965893</v>
+        <v>50.00472832354137</v>
       </c>
       <c r="G52" t="n">
-        <v>3000.000004434916</v>
+        <v>499.997588682093</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Walking Speed</t>
+          <t>PANSS (Positive)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Mental Health</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1153441451742006</v>
+        <v>0.3745065002821081</v>
       </c>
       <c r="F53" t="n">
-        <v>150.000351939525</v>
+        <v>300.0001141564817</v>
       </c>
       <c r="G53" t="n">
-        <v>2500.000015284385</v>
+        <v>5500.000007773065</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Story Comprehension</t>
+          <t>DASS (Anxiety)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Mental Health</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.312555316089087</v>
+        <v>0.2082117074423164</v>
       </c>
       <c r="F54" t="n">
-        <v>300.0001365761709</v>
+        <v>150.0004557864054</v>
       </c>
       <c r="G54" t="n">
-        <v>4500.000005559128</v>
+        <v>500.0000428646194</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Relational Processing</t>
+          <t>DASS (Stress)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Mental Health</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.5115991149509699</v>
+        <v>0.6931066116594673</v>
       </c>
       <c r="F55" t="n">
-        <v>1100.000027851796</v>
+        <v>1450.000001838513</v>
       </c>
       <c r="G55" t="n">
-        <v>14500.00000106545</v>
+        <v>1999.999999989819</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>N-back</t>
+          <t>DASS (Total)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Mental Health</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.3721451076516356</v>
+        <v>0.3379431613514314</v>
       </c>
       <c r="F56" t="n">
-        <v>550.0000718860555</v>
+        <v>400.0001775020959</v>
       </c>
       <c r="G56" t="n">
-        <v>9500.0000027197</v>
+        <v>500.0000177713246</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Openness (NEO)</t>
+          <t>Marder Factor Score (Positive)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Personality</t>
+          <t>Mental Health</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2735755526937941</v>
+        <v>0.3140379011756265</v>
       </c>
       <c r="F57" t="n">
-        <v>1100.000053830684</v>
+        <v>0.0003731126497783747</v>
       </c>
       <c r="G57" t="n">
-        <v>14500.00000224995</v>
+        <v>3000.000023504152</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>two session</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Extraversion (NEO)</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Personality</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.1634346181086693</v>
+        <v>0.98192802993981</v>
       </c>
       <c r="F58" t="n">
-        <v>400.0001069544697</v>
+        <v>949.999920667598</v>
       </c>
       <c r="G58" t="n">
-        <v>14500.00000369427</v>
+        <v>4999.999993675662</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HCP</t>
+          <t>MDD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7978440007163594</v>
+      </c>
+      <c r="F59" t="n">
+        <v>99.99992086659803</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1999.999993856997</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MDD</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>HAMD (Total)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3617228114744194</v>
+      </c>
+      <c r="F60" t="n">
+        <v>700.0000925051908</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1500.000008869568</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MDD</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Depressed Mood</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3139136939148522</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9.198651262844991e-05</v>
+      </c>
+      <c r="G61" t="n">
+        <v>14500.000006037</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MDD</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Late Insomnia</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.3340411668129186</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7.216215349098761e-05</v>
+      </c>
+      <c r="G62" t="n">
+        <v>14500.00000618914</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MDD</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Work and Interests</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.4837278836649164</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1450.000032400221</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4000.000003070534</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MDD</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Retardation</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5118844498613406</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1450.000021468303</v>
+      </c>
+      <c r="G64" t="n">
+        <v>14500.0000016408</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MDD</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Insight</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.540668620336901</v>
+      </c>
+      <c r="F65" t="n">
+        <v>900.0000351910194</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4000.000002990654</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ADNI</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5704305472971957</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.002622762642111005</v>
+      </c>
+      <c r="G66" t="n">
+        <v>499.999454429197</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ADNI</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BMI</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.3794431745368786</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0002532227355675497</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1000.000045560365</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ADNI</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Delayed Logical Memory</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.4495251997172987</v>
+      </c>
+      <c r="F68" t="n">
+        <v>300.0000974608127</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1000.000020246255</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ADNI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MMSE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.4378738561979794</v>
+      </c>
+      <c r="F69" t="n">
+        <v>150.0001649851336</v>
+      </c>
+      <c r="G69" t="n">
+        <v>500.0000346438076</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ADNI</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Amyloid (Default A)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.4487502845881616</v>
+      </c>
+      <c r="F70" t="n">
+        <v>300.0000858429603</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1500.00001660147</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ADNI</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Amyloid (Default B)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5327144171181338</v>
+      </c>
+      <c r="F71" t="n">
+        <v>650.0000362138488</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2500.000006928693</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Vocabulary</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.4541563646851346</v>
+      </c>
+      <c r="F72" t="n">
+        <v>50.00009796371357</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1500.00001557638</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.2284138259859579</v>
+      </c>
+      <c r="F73" t="n">
+        <v>400.0000415790254</v>
+      </c>
+      <c r="G73" t="n">
+        <v>11500.00000611822</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Working Memory</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.2935968000606524</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0001359577029032036</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2500.000021853198</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Executive Function</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.3193553474346629</v>
+      </c>
+      <c r="F75" t="n">
+        <v>150.0000673487613</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5000.000010434081</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Episodic Memory</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.3121188414018817</v>
+      </c>
+      <c r="F76" t="n">
+        <v>750.0000494183405</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4000.000008227467</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.4544397927779969</v>
+      </c>
+      <c r="F77" t="n">
+        <v>200.0000586891528</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2500.000009631643</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Fluid Cognition</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.3950305591570016</v>
+      </c>
+      <c r="F78" t="n">
+        <v>150.0000780968311</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2500.000012719561</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Crystalized Cognition</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.5200786241745019</v>
+      </c>
+      <c r="F79" t="n">
+        <v>100.0000605274422</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1500.000010153236</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Overall Cognition</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4952184840150634</v>
+      </c>
+      <c r="F80" t="n">
+        <v>100.0000693505836</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1500.000011690318</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Positive Urgency</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.1846467883590832</v>
+      </c>
+      <c r="F81" t="n">
+        <v>100.0000430394088</v>
+      </c>
+      <c r="G81" t="n">
+        <v>14500.00000615737</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Short Delay Recall</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.2611103914757075</v>
+      </c>
+      <c r="F82" t="n">
+        <v>150.0000952037466</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3500.000015188422</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Long Delay Recall</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.2483235858063819</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0001546808907806303</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2500.000024651397</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Fluid Intelligence</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.3726978110982154</v>
+      </c>
+      <c r="F84" t="n">
+        <v>100.0000910204794</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2500.000014749114</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Visuospatial Accuracy</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.2718378235679421</v>
+      </c>
+      <c r="F85" t="n">
+        <v>200.0000762769475</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4500.000012013385</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Visuospatial Efficiency</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.2425726540130127</v>
+      </c>
+      <c r="F86" t="n">
+        <v>150.0000387495546</v>
+      </c>
+      <c r="G86" t="n">
+        <v>14500.00000553967</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ABCD (MID)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Cognition Factor Score</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.5280872344861629</v>
+      </c>
+      <c r="F87" t="n">
+        <v>100.0000528823638</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1500.00000914716</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Attention Problems</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.1872272366367709</v>
+      </c>
+      <c r="F88" t="n">
+        <v>300.0000978329767</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3000.00001732383</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Vocabulary</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.4358451214048507</v>
+      </c>
+      <c r="F89" t="n">
+        <v>100.0001487716163</v>
+      </c>
+      <c r="G89" t="n">
+        <v>500.0000319449386</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.2347535600053064</v>
+      </c>
+      <c r="F90" t="n">
+        <v>350.0000920192481</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2500.000016696485</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Working Memory</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.2997295110565159</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0002524982658670098</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1000.000045506975</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Executive Function</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.3064819927821264</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100.0001414956653</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1500.000025914175</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Episodic Memory</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.29124336507834</v>
+      </c>
+      <c r="F93" t="n">
+        <v>500.0000911286571</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1000.000018002666</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.3864899653340433</v>
+      </c>
+      <c r="F94" t="n">
+        <v>50.00014793561999</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1000.000026102824</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Fluid Cognition</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.4060800257385042</v>
+      </c>
+      <c r="F95" t="n">
+        <v>100.00012315688</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1000.000023059112</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Crystalized Cognition</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.4639972973918377</v>
+      </c>
+      <c r="F96" t="n">
+        <v>50.00017241799316</v>
+      </c>
+      <c r="G96" t="n">
+        <v>500.0000319052449</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Overall Cognition</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.4858918089057366</v>
+      </c>
+      <c r="F97" t="n">
+        <v>50.00015629044527</v>
+      </c>
+      <c r="G97" t="n">
+        <v>500.0000305269491</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.1373680486723123</v>
+      </c>
+      <c r="F98" t="n">
+        <v>6.856564126253905e-05</v>
+      </c>
+      <c r="G98" t="n">
+        <v>8500.000010887636</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Total Psychosis Symptoms</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.1834861517241699</v>
+      </c>
+      <c r="F99" t="n">
+        <v>250.0001279334589</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2000.000023349566</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Psychosis Severity</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.1840628748192264</v>
+      </c>
+      <c r="F100" t="n">
+        <v>350.0001428856732</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1000.000027922782</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Short Delay Recall</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.3020682022049079</v>
+      </c>
+      <c r="F101" t="n">
+        <v>400.0000896046616</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1500.000016980569</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Long Delay Recall</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.2878065083279751</v>
+      </c>
+      <c r="F102" t="n">
+        <v>50.00013944000209</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2000.00002490513</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Fluid Intelligence</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.3816161558989712</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100.0001314597531</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1000.000024265542</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Visuospatial Accuracy</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.3053835716619918</v>
+      </c>
+      <c r="F104" t="n">
+        <v>150.0001276325602</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1500.000023875451</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Visuospatial Efficiency</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.2816558275918323</v>
+      </c>
+      <c r="F105" t="n">
+        <v>700.0000657650152</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2000.000012494757</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ABCD (NBACK)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Cognition Factor Score</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5275223670679118</v>
+      </c>
+      <c r="F106" t="n">
+        <v>50.00010716642951</v>
+      </c>
+      <c r="G106" t="n">
+        <v>500.000022939505</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Rule-breaking Behaviour</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.167793478024788</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1450.00004926969</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3000.000008169004</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Vocabulary</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.3973409915039717</v>
+      </c>
+      <c r="F108" t="n">
+        <v>8.85814676690005e-05</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3000.000013691643</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Working Memory</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.2180723663183545</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.000103155756823652</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5000.000014617898</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Executive Function</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.3022807107066459</v>
+      </c>
+      <c r="F110" t="n">
+        <v>750.0000293250904</v>
+      </c>
+      <c r="G110" t="n">
+        <v>14500.00000423389</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Episodic Memory</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.2682865063691924</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1150.000027389845</v>
+      </c>
+      <c r="G111" t="n">
+        <v>14500.00000390717</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.3718615029894276</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5.29168383476328e-05</v>
+      </c>
+      <c r="G112" t="n">
+        <v>7500.000007359194</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Fluid Cognition</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.3746918388183317</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1450.000025542851</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9000.000003686973</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Crystalized Cognition</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.4336999082241292</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6.255113444656471e-05</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4000.000009621359</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Overall Cognition</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.4015438439523207</v>
+      </c>
+      <c r="F115" t="n">
+        <v>150.0000591258409</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4500.000008630478</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Positive Urgency</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.1299151737550985</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0001215641096976236</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5000.000017251519</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Total Psychosis Symptoms</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.199026684569663</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4.430923375915792e-05</v>
+      </c>
+      <c r="G117" t="n">
+        <v>14500.00000613935</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Psychosis Severity</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1840253003457406</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4.4743971933307e-05</v>
+      </c>
+      <c r="G118" t="n">
+        <v>14500.00000631503</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Short Delay Recall</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.2471682197964528</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1450.00003251929</v>
+      </c>
+      <c r="G119" t="n">
+        <v>9000.00000474296</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Long Delay Recall</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.1906202223901476</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1450.000053792862</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1500.000009371451</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Fluid Intelligence</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.3366717073369896</v>
+      </c>
+      <c r="F121" t="n">
+        <v>200.0000581388178</v>
+      </c>
+      <c r="G121" t="n">
+        <v>6000.000008294585</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Visuospatial Accuracy</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.3255337824437118</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1450.000031392957</v>
+      </c>
+      <c r="G122" t="n">
+        <v>6500.000004785381</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Visuospatial Efficiency</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.2960772515649289</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1450.000024662814</v>
+      </c>
+      <c r="G123" t="n">
+        <v>14500.00000345818</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ABCD (SST)</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cognition Factor Score</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.4449198508395796</v>
+      </c>
+      <c r="F124" t="n">
+        <v>200.0000511800942</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4000.000007658953</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Social Problems</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.1411865106900223</v>
+      </c>
+      <c r="F125" t="n">
+        <v>50.00006950776749</v>
+      </c>
+      <c r="G125" t="n">
+        <v>14500.00000591889</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Attention Problems</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.1422055135083126</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0001032667003558393</v>
+      </c>
+      <c r="G126" t="n">
+        <v>9000.00000916789</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Rule-breaking Behaviour</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.1663288839319393</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100.0000759783569</v>
+      </c>
+      <c r="G127" t="n">
+        <v>11500.00000660689</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Vocabulary</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4509024905881934</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.001124087251848824</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3000.000043935247</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Working Memory</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.401956663518365</v>
+      </c>
+      <c r="F129" t="n">
+        <v>250.0000417814012</v>
+      </c>
+      <c r="G129" t="n">
+        <v>11000.00000371782</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Executive Function</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.2160342531380983</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0001798166084584931</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3500.000018013302</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Episodic Memory</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.2665597557161402</v>
+      </c>
+      <c r="F131" t="n">
+        <v>50.00006236360009</v>
+      </c>
+      <c r="G131" t="n">
+        <v>12500.00000534069</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.4168131620733792</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6.615636654874208e-05</v>
+      </c>
+      <c r="G132" t="n">
+        <v>6500.000006023967</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Fluid Cognition</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.3673835941214595</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100.0000691355789</v>
+      </c>
+      <c r="G133" t="n">
+        <v>6500.000006460281</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Crystalized Cognition</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5032193917674861</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.001307735094687684</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3499.999998748774</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Overall Cognition</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.4810860493766541</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6.499163902232597e-05</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4000.000006718278</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Mania</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.1600687257806346</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8.670642953931105e-05</v>
+      </c>
+      <c r="G136" t="n">
+        <v>11000.00000746663</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Short Delay Recall</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.2231506107656526</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0001374797913110829</v>
+      </c>
+      <c r="G137" t="n">
+        <v>5000.000012983168</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Long Delay Recall</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.2294247938669189</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.000133954188591773</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5000.000012762731</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Fluid Intelligence</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.3652047122164707</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8.989355041145518e-05</v>
+      </c>
+      <c r="G139" t="n">
+        <v>5000.000008731879</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Visuospatial Accuracy</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.2930726100302695</v>
+      </c>
+      <c r="F140" t="n">
+        <v>450.0000456448516</v>
+      </c>
+      <c r="G140" t="n">
+        <v>12500.00000410523</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Cognition Factor Score</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.5137002867628433</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5.091825748825095e-05</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4000.000005119162</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Cognitive Flexibility</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.2349432358162292</v>
+      </c>
+      <c r="F142" t="n">
+        <v>300.0001223999675</v>
+      </c>
+      <c r="G142" t="n">
+        <v>10500.00000429366</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.1389622883866126</v>
+      </c>
+      <c r="F143" t="n">
+        <v>700.0000840155815</v>
+      </c>
+      <c r="G143" t="n">
+        <v>14500.00000311335</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Fluid Intelligence</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.4120877850317824</v>
+      </c>
+      <c r="F144" t="n">
+        <v>700.0000561641672</v>
+      </c>
+      <c r="G144" t="n">
+        <v>10000.00000213638</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.4954267816367309</v>
+      </c>
+      <c r="F145" t="n">
+        <v>200.0000755267236</v>
+      </c>
+      <c r="G145" t="n">
+        <v>7500.000002682924</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Vocab.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.539135941242406</v>
+      </c>
+      <c r="F146" t="n">
+        <v>300.0000516452984</v>
+      </c>
+      <c r="G146" t="n">
+        <v>7500.000001947841</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Processing Speed</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.2347170863749766</v>
+      </c>
+      <c r="F147" t="n">
+        <v>450.0001116824307</v>
+      </c>
+      <c r="G147" t="n">
+        <v>8000.000004241767</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Delay Discounting</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.3185869131000214</v>
+      </c>
+      <c r="F148" t="n">
+        <v>250.0001513139279</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4000.000006243221</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Spatial Orientation</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0.4187497295550255</v>
+      </c>
+      <c r="F149" t="n">
+        <v>500.0000582570387</v>
+      </c>
+      <c r="G149" t="n">
+        <v>14500.00000220422</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sustained Attention (Spec.)</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.1808235077141988</v>
+      </c>
+      <c r="F150" t="n">
+        <v>900.0000692926018</v>
+      </c>
+      <c r="G150" t="n">
+        <v>14500.00000261152</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Sleep Quality (PSQI)</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.1976796009569299</v>
+      </c>
+      <c r="F151" t="n">
+        <v>400.0001018813189</v>
+      </c>
+      <c r="G151" t="n">
+        <v>14500.00000349949</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Emotional Face Matching</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.178778319265907</v>
+      </c>
+      <c r="F152" t="n">
+        <v>550.0000907086712</v>
+      </c>
+      <c r="G152" t="n">
+        <v>14500.00000321155</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Story Comprehension</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0.3342783636295866</v>
+      </c>
+      <c r="F153" t="n">
+        <v>250.0001236010948</v>
+      </c>
+      <c r="G153" t="n">
+        <v>7000.000004549468</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Relational Processing</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.4654145601888234</v>
+      </c>
+      <c r="F154" t="n">
+        <v>500.0000563361892</v>
+      </c>
+      <c r="G154" t="n">
+        <v>9500.000002094057</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>N-back</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.3745617757683003</v>
+      </c>
+      <c r="F155" t="n">
+        <v>350.0000979809377</v>
+      </c>
+      <c r="G155" t="n">
+        <v>6500.000003801936</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Openness (NEO)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.345123636492108</v>
+      </c>
+      <c r="F156" t="n">
+        <v>650.0000627444261</v>
+      </c>
+      <c r="G156" t="n">
+        <v>14500.00000231016</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Conscientiousness (NEO)</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.213867954866239</v>
+      </c>
+      <c r="F157" t="n">
+        <v>700.000076446635</v>
+      </c>
+      <c r="G157" t="n">
+        <v>14500.00000282614</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Extraversion (NEO)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.1824500168989294</v>
+      </c>
+      <c r="F158" t="n">
+        <v>450.0000990024213</v>
+      </c>
+      <c r="G158" t="n">
+        <v>14500.00000351799</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Life Satisfaction</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Well Being</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.2304728433231252</v>
+      </c>
+      <c r="F159" t="n">
+        <v>800.0000693415689</v>
+      </c>
+      <c r="G159" t="n">
+        <v>14500.00000261305</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>randomized</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Cognition Factor Score</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.6093811039942849</v>
+      </c>
+      <c r="F160" t="n">
+        <v>200.0000378772648</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4500.000001486575</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Rule-breaking Behaviour</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.1586534851012767</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8.675063047836038e-05</v>
+      </c>
+      <c r="G161" t="n">
+        <v>11000.00000747887</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Vocabulary</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.3303969799942003</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.000125590454385513</v>
+      </c>
+      <c r="G162" t="n">
+        <v>3500.000013174108</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Working Memory</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.3206419080191114</v>
+      </c>
+      <c r="F163" t="n">
+        <v>500.0000389959309</v>
+      </c>
+      <c r="G163" t="n">
+        <v>14500.00000364789</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Episodic Memory</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.1552608257272549</v>
+      </c>
+      <c r="F164" t="n">
+        <v>9.727163147834632e-05</v>
+      </c>
+      <c r="G164" t="n">
+        <v>9500.000008547393</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.2787076862844913</v>
+      </c>
+      <c r="F165" t="n">
+        <v>50.00007845613067</v>
+      </c>
+      <c r="G165" t="n">
+        <v>8500.000007010744</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Fluid Cognition</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.289919763963732</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6.016980030571112e-05</v>
+      </c>
+      <c r="G166" t="n">
+        <v>12000.00000543076</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Crystalized Cognition</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.3621599787248733</v>
+      </c>
+      <c r="F167" t="n">
+        <v>9.098065277549218e-05</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5000.000008757482</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Overall Cognition</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.3700733816671411</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6.930540520374517e-05</v>
+      </c>
+      <c r="G168" t="n">
+        <v>7000.00000669397</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.2055511891606359</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1450.000032759679</v>
+      </c>
+      <c r="G169" t="n">
+        <v>14500.00000323296</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Mania</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.1606654556607497</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6.821988434866525e-05</v>
+      </c>
+      <c r="G170" t="n">
+        <v>14500.00000595675</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Long Delay Recall</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.16624709252545</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.0001835976125784174</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4000.000018008607</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Fluid Intelligence</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.2600819643306175</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8.213192145897864e-05</v>
+      </c>
+      <c r="G172" t="n">
+        <v>9000.00000730996</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Visuospatial Accuracy</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.1994034761159588</v>
+      </c>
+      <c r="F173" t="n">
+        <v>450.0000497901809</v>
+      </c>
+      <c r="G173" t="n">
+        <v>14500.00000454764</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Cognition Factor Score</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.3951973034934117</v>
+      </c>
+      <c r="F174" t="n">
+        <v>6.33262445409698e-05</v>
+      </c>
+      <c r="G174" t="n">
+        <v>7000.000006149248</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Cognitive Flexibility</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.2628409538069317</v>
+      </c>
+      <c r="F175" t="n">
+        <v>350.0000967349048</v>
+      </c>
+      <c r="G175" t="n">
+        <v>14500.0000033761</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Fluid Intelligence</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.2616185188282069</v>
+      </c>
+      <c r="F176" t="n">
+        <v>50.00014340159299</v>
+      </c>
+      <c r="G176" t="n">
+        <v>14500.00000468686</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.4348875509480294</v>
+      </c>
+      <c r="F177" t="n">
+        <v>150.0000787404124</v>
+      </c>
+      <c r="G177" t="n">
+        <v>14500.00000269373</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Vocab.</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.4243219857225997</v>
+      </c>
+      <c r="F178" t="n">
+        <v>350.0000652651039</v>
+      </c>
+      <c r="G178" t="n">
+        <v>14500.00000249629</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Delay Discounting</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.2709254971457777</v>
+      </c>
+      <c r="F179" t="n">
+        <v>200.0001290932152</v>
+      </c>
+      <c r="G179" t="n">
+        <v>11000.00000436136</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Spatial Orientation</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.30757947563126</v>
+      </c>
+      <c r="F180" t="n">
+        <v>700.0000654316067</v>
+      </c>
+      <c r="G180" t="n">
+        <v>14500.00000233929</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Sleep Quality (PSQI)</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.09818492607330709</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0002083107799646114</v>
+      </c>
+      <c r="G181" t="n">
+        <v>14500.00000643839</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Contrast Sensitivity</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.1250512303688516</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.0001972120802229066</v>
+      </c>
+      <c r="G182" t="n">
+        <v>14500.00000640879</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Relational Processing</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.2792445655245265</v>
+      </c>
+      <c r="F183" t="n">
+        <v>800.0000641205702</v>
+      </c>
+      <c r="G183" t="n">
+        <v>14500.00000239341</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>N-back</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.2968395510575931</v>
+      </c>
+      <c r="F184" t="n">
+        <v>300.0000955521188</v>
+      </c>
+      <c r="G184" t="n">
+        <v>14500.00000322958</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Openness (NEO)</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.2276045869061146</v>
+      </c>
+      <c r="F185" t="n">
+        <v>100.0001413802665</v>
+      </c>
+      <c r="G185" t="n">
+        <v>14500.00000493722</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Friendship</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Well Being</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.1705145032381958</v>
+      </c>
+      <c r="F186" t="n">
+        <v>750.0000779814122</v>
+      </c>
+      <c r="G186" t="n">
+        <v>14500.00000289732</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>subcortical</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Cognition Factor Score</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.5035222387589129</v>
+      </c>
+      <c r="F187" t="n">
+        <v>200.0000652419677</v>
+      </c>
+      <c r="G187" t="n">
+        <v>10000.0000022311</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Attention Problems</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.1450439873715192</v>
+      </c>
+      <c r="F188" t="n">
+        <v>9.46301210644788e-05</v>
+      </c>
+      <c r="G188" t="n">
+        <v>10000.00000831079</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Rule-breaking Behaviour</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.1646852406706904</v>
+      </c>
+      <c r="F189" t="n">
+        <v>300.0000776844674</v>
+      </c>
+      <c r="G189" t="n">
+        <v>8500.000007220469</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Vocabulary</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.4556519867045241</v>
+      </c>
+      <c r="F190" t="n">
+        <v>50.00009396532062</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2000.000011444889</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.2242029226897664</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1450.000037768038</v>
+      </c>
+      <c r="G191" t="n">
+        <v>9000.000003805158</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Working Memory</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.4217433107950705</v>
+      </c>
+      <c r="F192" t="n">
+        <v>700.0000358508074</v>
+      </c>
+      <c r="G192" t="n">
+        <v>7000.000003593388</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Executive Function</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0.2353476099290962</v>
+      </c>
+      <c r="F193" t="n">
+        <v>150.0001389720495</v>
+      </c>
+      <c r="G193" t="n">
+        <v>3000.000014504986</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Episodic Memory</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0.2432639627814636</v>
+      </c>
+      <c r="F194" t="n">
+        <v>150.0000862330758</v>
+      </c>
+      <c r="G194" t="n">
+        <v>7000.000008028869</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0.4456788418530822</v>
+      </c>
+      <c r="F195" t="n">
+        <v>200.0000589452959</v>
+      </c>
+      <c r="G195" t="n">
+        <v>4000.00000597736</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Fluid Cognition</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0.3899163642379259</v>
+      </c>
+      <c r="F196" t="n">
+        <v>400.0000565100859</v>
+      </c>
+      <c r="G196" t="n">
+        <v>4500.000005797501</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Crystalized Cognition</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0.5160898554373644</v>
+      </c>
+      <c r="F197" t="n">
+        <v>50.00005823595072</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2500.00000588363</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Overall Cognition</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0.496147222836296</v>
+      </c>
+      <c r="F198" t="n">
+        <v>150.0000578238345</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2500.000006712638</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Mania</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Mental Health</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0.1515119456009806</v>
+      </c>
+      <c r="F199" t="n">
+        <v>150.0000793091337</v>
+      </c>
+      <c r="G199" t="n">
+        <v>10500.00000701971</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Short Delay Recall</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0.2064563729107896</v>
+      </c>
+      <c r="F200" t="n">
+        <v>100.0002081125174</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2000.000022765533</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Long Delay Recall</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0.2162099972126673</v>
+      </c>
+      <c r="F201" t="n">
+        <v>100.0002328698983</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1500.000026311628</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Fluid Intelligence</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.3697943647739857</v>
+      </c>
+      <c r="F202" t="n">
+        <v>50.00011516425773</v>
+      </c>
+      <c r="G202" t="n">
+        <v>3000.000011595702</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Visuospatial Accuracy</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0.3061123529068021</v>
+      </c>
+      <c r="F203" t="n">
+        <v>800.0000409043091</v>
+      </c>
+      <c r="G203" t="n">
+        <v>10000.00000392388</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Visuospatial Reaction Time</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0.1213511002293346</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.0001032204039466163</v>
+      </c>
+      <c r="G204" t="n">
+        <v>9500.000009041456</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ABCD (rest)</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Cognition Factor Score</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0.5200243033844598</v>
+      </c>
+      <c r="F205" t="n">
+        <v>100.0000557800942</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2500.000005593066</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Cognitive Flexibility</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.2553831172779083</v>
+      </c>
+      <c r="F206" t="n">
+        <v>450.0001334959417</v>
+      </c>
+      <c r="G206" t="n">
+        <v>3000.000006136018</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.2480418306592001</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1100.000056010497</v>
+      </c>
+      <c r="G207" t="n">
+        <v>14500.00000228012</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Fluid Intelligence</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0.4507635482208625</v>
+      </c>
+      <c r="F208" t="n">
+        <v>800.0000493209793</v>
+      </c>
+      <c r="G208" t="n">
+        <v>7000.000002048386</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0.5028558536278315</v>
+      </c>
+      <c r="F209" t="n">
+        <v>200.0000790890934</v>
+      </c>
+      <c r="G209" t="n">
+        <v>5500.00000303325</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Vocab.</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.5190061830844126</v>
+      </c>
+      <c r="F210" t="n">
+        <v>200.0000734337673</v>
+      </c>
+      <c r="G210" t="n">
+        <v>5500.000002773624</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Processing Speed</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.2307116900071765</v>
+      </c>
+      <c r="F211" t="n">
+        <v>200.0001796281353</v>
+      </c>
+      <c r="G211" t="n">
+        <v>6000.000006721222</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Delay Discounting</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0.3399717488757414</v>
+      </c>
+      <c r="F212" t="n">
+        <v>250.0001531169663</v>
+      </c>
+      <c r="G212" t="n">
+        <v>3000.000006665624</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Spatial Orientation</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0.5793207831888986</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1350.000017180218</v>
+      </c>
+      <c r="G213" t="n">
+        <v>11500.00000068226</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Sustained Attention (Spec.)</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0.1224009845456274</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.000200780399467487</v>
+      </c>
+      <c r="G214" t="n">
+        <v>14500.00000630661</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>List Sorting</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0.3604369384573688</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1150.000044204399</v>
+      </c>
+      <c r="G215" t="n">
+        <v>14500.00000178047</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Sleep Quality (PSQI)</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0.2793180240730221</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1450.000048199808</v>
+      </c>
+      <c r="G216" t="n">
+        <v>10000.00000201569</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Walking Speed</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0.1466665852150249</v>
+      </c>
+      <c r="F217" t="n">
+        <v>250.0001300755908</v>
+      </c>
+      <c r="G217" t="n">
+        <v>14500.00000432359</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Grip Strength</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0.1197847725706772</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.0002003313908680246</v>
+      </c>
+      <c r="G218" t="n">
+        <v>14500.00000643988</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Emotional Face Matching</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0.1621045320053713</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.0001888565868928877</v>
+      </c>
+      <c r="G219" t="n">
+        <v>14500.00000591464</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Arithmetic</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>0.2317038594183526</v>
+      </c>
+      <c r="F220" t="n">
+        <v>650.0000774243758</v>
+      </c>
+      <c r="G220" t="n">
+        <v>14500.00000287726</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Story Comprehension</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>0.3264966196268742</v>
+      </c>
+      <c r="F221" t="n">
+        <v>200.0001299730278</v>
+      </c>
+      <c r="G221" t="n">
+        <v>8000.000004632058</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Relational Processing</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>0.4946553511187113</v>
+      </c>
+      <c r="F222" t="n">
+        <v>450.0000525920926</v>
+      </c>
+      <c r="G222" t="n">
+        <v>9000.000001998656</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>N-back</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>0.3693267402270507</v>
+      </c>
+      <c r="F223" t="n">
+        <v>400.0001159929543</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2000.000005716581</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Openness (NEO)</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>0.2835704874018593</v>
+      </c>
+      <c r="F224" t="n">
+        <v>150.0001176361157</v>
+      </c>
+      <c r="G224" t="n">
+        <v>14500.00000392249</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Conscientiousness (NEO)</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>0.2659350042104713</v>
+      </c>
+      <c r="F225" t="n">
+        <v>850.0000633999673</v>
+      </c>
+      <c r="G225" t="n">
+        <v>14500.00000242534</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Extraversion (NEO)</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>0.2645891931227496</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1450.000055068973</v>
+      </c>
+      <c r="G226" t="n">
+        <v>4500.000002645191</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Sadness</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>0.08434001261753422</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.0002110070894951711</v>
+      </c>
+      <c r="G227" t="n">
+        <v>14500.00000669594</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Life Satisfaction</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Well Being</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>0.3035572856584827</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1450.000045627688</v>
+      </c>
+      <c r="G228" t="n">
+        <v>11000.00000185563</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1000 parcels</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Cognition Factor Score</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>0.6166223096817678</v>
+      </c>
+      <c r="F229" t="n">
+        <v>200.0000366946876</v>
+      </c>
+      <c r="G229" t="n">
+        <v>3000.000001489491</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
           <t>two session</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Cognitive Flexibility</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>0.1364406199300574</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.000280970335417328</v>
+      </c>
+      <c r="G230" t="n">
+        <v>9000.000009176227</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0.4191768600516426</v>
+      </c>
+      <c r="F231" t="n">
+        <v>50.00009609455613</v>
+      </c>
+      <c r="G231" t="n">
+        <v>14500.00000323816</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Vocab.</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>0.4916502048245117</v>
+      </c>
+      <c r="F232" t="n">
+        <v>400.0000484393809</v>
+      </c>
+      <c r="G232" t="n">
+        <v>14500.00000183463</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Delay Discounting</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0.3316332242192755</v>
+      </c>
+      <c r="F233" t="n">
+        <v>500.0001083493387</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2500.000005238464</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Spatial Orientation</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>0.3306636652197</v>
+      </c>
+      <c r="F234" t="n">
+        <v>350.0000841179469</v>
+      </c>
+      <c r="G234" t="n">
+        <v>14500.00000315631</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Sustained Attention (Spec.)</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>0.08751684194660547</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.0002084390143220467</v>
+      </c>
+      <c r="G235" t="n">
+        <v>14500.00000666162</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>List Sorting</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1522594332850367</v>
+      </c>
+      <c r="F236" t="n">
+        <v>50.0001745311964</v>
+      </c>
+      <c r="G236" t="n">
+        <v>14500.00000561841</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Sleep Quality (PSQI)</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>0.1682295122622627</v>
+      </c>
+      <c r="F237" t="n">
+        <v>600.0001148341173</v>
+      </c>
+      <c r="G237" t="n">
+        <v>5500.000004837739</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Walking Endurance</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>0.2484681721665249</v>
+      </c>
+      <c r="F238" t="n">
+        <v>800.0000909965893</v>
+      </c>
+      <c r="G238" t="n">
+        <v>3000.000004434916</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Walking Speed</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>0.1153441451742006</v>
+      </c>
+      <c r="F239" t="n">
+        <v>150.000351939525</v>
+      </c>
+      <c r="G239" t="n">
+        <v>2500.000015284385</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Story Comprehension</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>0.312555316089087</v>
+      </c>
+      <c r="F240" t="n">
+        <v>300.0001365761709</v>
+      </c>
+      <c r="G240" t="n">
+        <v>4500.000005559128</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Relational Processing</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0.5115991149509699</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1100.000027851796</v>
+      </c>
+      <c r="G241" t="n">
+        <v>14500.00000106545</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>N-back</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>0.3721451076516356</v>
+      </c>
+      <c r="F242" t="n">
+        <v>550.0000718860555</v>
+      </c>
+      <c r="G242" t="n">
+        <v>9500.0000027197</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Openness (NEO)</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>0.2735755526937941</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1100.000053830684</v>
+      </c>
+      <c r="G243" t="n">
+        <v>14500.00000224995</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Extraversion (NEO)</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Personality</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>0.1634346181086693</v>
+      </c>
+      <c r="F244" t="n">
+        <v>400.0001069544697</v>
+      </c>
+      <c r="G244" t="n">
+        <v>14500.00000369427</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>HCP</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>two session</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
         <is>
           <t>Cognition Factor Score</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Cognition</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Cognition</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
         <v>0.5777393767635334</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F245" t="n">
         <v>350.0000420092671</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G245" t="n">
         <v>4500.000001700981</v>
       </c>
     </row>
